--- a/data/trans_bre/P29_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-26.01971040014198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-24.3156625667661</v>
+        <v>-24.31566256676609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6155565331510104</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-36.52218301224755</v>
+        <v>-36.98522164656491</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-36.71271904097621</v>
+        <v>-36.46117707682175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-29.76470960018361</v>
+        <v>-29.95508671642278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-29.86973708176003</v>
+        <v>-30.60305025743236</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6714993766987181</v>
+        <v>-0.6720079215085939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6140538752713313</v>
+        <v>-0.6107451577697192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5450731932279265</v>
+        <v>-0.546861933922366</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5445935046155737</v>
+        <v>-0.5534744069509495</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-26.41524574915508</v>
+        <v>-27.25483216721835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-28.64680139977855</v>
+        <v>-28.28739501413521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-22.16618458160372</v>
+        <v>-22.2521786561408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-18.06689893740554</v>
+        <v>-18.63737137442292</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.5481860335464305</v>
+        <v>-0.5592848056800321</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5106520300239205</v>
+        <v>-0.5044681792444946</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.4372068670205387</v>
+        <v>-0.4398132555231486</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3809934162082914</v>
+        <v>-0.3924955503887541</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-39.36797617333168</v>
+        <v>-39.1715438631867</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-35.12592303763164</v>
+        <v>-35.19808066539841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-32.03224101975486</v>
+        <v>-32.36160059630037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-27.58715966333875</v>
+        <v>-28.46433272087761</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.645656967401098</v>
+        <v>-0.6477990976848164</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5651148524305347</v>
+        <v>-0.563682841157955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5185953685093663</v>
+        <v>-0.5202079968503096</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4632846267041729</v>
+        <v>-0.4736518643319481</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-31.3043501551106</v>
+        <v>-31.25468881170271</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.55438213783515</v>
+        <v>-26.74990307861397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-23.53522047224835</v>
+        <v>-23.32970475635319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-18.46600457620051</v>
+        <v>-19.04417016785527</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5470399444971341</v>
+        <v>-0.5500082340696641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4573703904138669</v>
+        <v>-0.4581036245961919</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4032047528856365</v>
+        <v>-0.3983406451016365</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3449438365170954</v>
+        <v>-0.3480325285964922</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-26.1652641082536</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-21.89938003438429</v>
+        <v>-21.89938003438428</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4536110878797488</v>
@@ -849,7 +849,7 @@
         <v>-0.4060688836461877</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3671167877812248</v>
+        <v>-0.3671167877812245</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-30.76099933161933</v>
+        <v>-30.5319333856894</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-34.95854530819745</v>
+        <v>-34.46564232174006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-30.6389338459524</v>
+        <v>-31.05483209162857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-26.44907977563275</v>
+        <v>-25.91348669947845</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.507783640932426</v>
+        <v>-0.5093977923965384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5461857371690305</v>
+        <v>-0.5404599070438227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4602348998176359</v>
+        <v>-0.4681350360814595</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4282497354022721</v>
+        <v>-0.4191718047593175</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-22.12899440466516</v>
+        <v>-22.56591122832205</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-25.5786712802959</v>
+        <v>-25.01479841132675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.27389279228409</v>
+        <v>-20.94921224066699</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-17.79016756910978</v>
+        <v>-17.35031496334548</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3892047779799046</v>
+        <v>-0.3953699040561336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4240629206201041</v>
+        <v>-0.4225774388649788</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3365138806181887</v>
+        <v>-0.3410075648720204</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3105272783776738</v>
+        <v>-0.3038213219616645</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-29.71528430285659</v>
+        <v>-29.69214696740886</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-28.11572923781408</v>
+        <v>-28.48524657639979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-31.3434249245677</v>
+        <v>-31.02152492243013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-22.61701324079317</v>
+        <v>-22.14317301511312</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4644339797660249</v>
+        <v>-0.4610918316636284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.456073927031734</v>
+        <v>-0.460565960559574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4733533956722337</v>
+        <v>-0.472765427954038</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.377227101534551</v>
+        <v>-0.3681960718486474</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-16.11273654001203</v>
+        <v>-15.89361160399875</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-15.23491608064609</v>
+        <v>-14.50445808455545</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-18.1492481189032</v>
+        <v>-18.10018246379778</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-13.45462426033019</v>
+        <v>-12.98626431233176</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2744668877961957</v>
+        <v>-0.270883256328553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2699024752506399</v>
+        <v>-0.2623490277652826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.296947520138854</v>
+        <v>-0.3040142264698497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.24476601041332</v>
+        <v>-0.2336399969917432</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-26.66394479547075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-21.99453059929043</v>
+        <v>-21.99453059929042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5399641186070179</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4504193926699108</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3851622343941182</v>
+        <v>-0.3851622343941181</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.53500145995328</v>
+        <v>-33.30948659264722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.57265814948907</v>
+        <v>-32.38663137377692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-29.06921560705454</v>
+        <v>-29.24355095013556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-24.26111575739193</v>
+        <v>-24.38489296251003</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5681022057615559</v>
+        <v>-0.5672706074691773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5337022884372914</v>
+        <v>-0.5313833408291111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4835413727726427</v>
+        <v>-0.4824665140659787</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4145114223032265</v>
+        <v>-0.4170541190757764</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-28.83075418431808</v>
+        <v>-28.89426538881938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-27.76711644017029</v>
+        <v>-27.7059528872697</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-24.1754626045326</v>
+        <v>-24.4722898208808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-19.36664283667308</v>
+        <v>-19.48773633805017</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5071398714319599</v>
+        <v>-0.5093330341456799</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4717970389383183</v>
+        <v>-0.4736030177816957</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4174119975603645</v>
+        <v>-0.4204969477834494</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.3498988259789893</v>
+        <v>-0.3506332983715444</v>
       </c>
     </row>
     <row r="19">
